--- a/SeniorProject/static/uploads/Demo_Sheet_1.xlsx
+++ b/SeniorProject/static/uploads/Demo_Sheet_1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="81">
   <si>
     <t>posted</t>
   </si>
@@ -74,27 +74,6 @@
     <t xml:space="preserve">CHECKCARD  0926 SQ *LOVEBIRD                                Bryn Mawr    PA </t>
   </si>
   <si>
-    <t>Interest Earned</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>Online scheduled transfer from CHK 2946                     Confirmation# xxxxxx2080</t>
-  </si>
-  <si>
-    <t>Transfers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Online scheduled transfer from CHK 2946                     </t>
-  </si>
-  <si>
-    <t>Online Banking transfer from CHK 2946                       Confirmation# xxxxxx1664</t>
-  </si>
-  <si>
-    <t>Transfer</t>
-  </si>
-  <si>
     <t>7-ELEVEN        09/24 #xxxxx5133 PURCHASE                   7-ELEVEN           BRYN MAWR     PA</t>
   </si>
   <si>
@@ -137,9 +116,6 @@
     <t>PlayStation Network</t>
   </si>
   <si>
-    <t>Online scheduled transfer from CHK 2946                     Confirmation# xxxxxx7054</t>
-  </si>
-  <si>
     <t>WINE AND SPIRI  09/18 #xxxxx5057 PURCHASE                   WINE AND SPIRITS   BRYN MAWR     PA</t>
   </si>
   <si>
@@ -167,9 +143,6 @@
     <t>CHECKCARD  0910 QDOBA 1735                                  BRYN MAWR    PA xxxxxxxxxxxxxxxxxxx2859</t>
   </si>
   <si>
-    <t>Online scheduled transfer from CHK 2946                     Confirmation# xxxxxx6112</t>
-  </si>
-  <si>
     <t>CVS/PHARM 0690  09/10 #xxxxx2594 PURCHASE                   CVS/PHARM xxx02--  Rosemone      PA</t>
   </si>
   <si>
@@ -191,15 +164,6 @@
     <t>7-ELEVEN        09/07 #xxxxx8965 PURCHASE                   7-ELEVEN           BRYN MAWR     PA</t>
   </si>
   <si>
-    <t>CHECKCARD  0907 AMZN MKTP US AMZN.COM/B                     AMZN.COM/BILLWA xxxxxxxxxxxxxxxxxxx1490</t>
-  </si>
-  <si>
-    <t>Other Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHECKCARD  0907 AMZN MKTP US AMZN.COM/B                     </t>
-  </si>
-  <si>
     <t>VENMO            DES:PAYMENT    ID:xxxxxx1312                INDN:CONNOR HENNESSEY        CO ID:3264</t>
   </si>
   <si>
@@ -218,9 +182,6 @@
     <t>Tomo Sushi</t>
   </si>
   <si>
-    <t>Online scheduled transfer from CHK 2946                     Confirmation# xxxxxx0510</t>
-  </si>
-  <si>
     <t>WAWA 40         09/04 #xxxxx8581 PURCHASE                   WAWA 40            BALA CYNWYD   PA</t>
   </si>
   <si>
@@ -228,12 +189,6 @@
   </si>
   <si>
     <t>Wawa Inc</t>
-  </si>
-  <si>
-    <t>VENMO            DES:CASHOUT    ID:xxxxxx5561                INDN:CONNOR HENNESSEY        CO ID:5264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENMO            DES:CASHOUT    ID:XX5561                INDN:CONNOR </t>
   </si>
   <si>
     <t>SUNOCO xxx3592  09/02 #xxxxx8271 PURCHASE                   SUNOCO xxxx5921    ROSEMONT      PA</t>
@@ -630,53 +585,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="73.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="J1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="L1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -800,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>43734</v>
+        <v>43732</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>3</v>
       </c>
       <c r="G6">
-        <v>0.02</v>
+        <v>-26.49</v>
       </c>
       <c r="J6" t="s">
         <v>4</v>
@@ -821,7 +778,7 @@
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -829,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>43734</v>
+        <v>43731</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>3</v>
       </c>
       <c r="G7">
-        <v>250</v>
+        <v>-13.58</v>
       </c>
       <c r="J7" t="s">
         <v>4</v>
@@ -850,7 +807,7 @@
         <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -858,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>43733</v>
+        <v>43731</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -870,7 +827,7 @@
         <v>3</v>
       </c>
       <c r="G8">
-        <v>250</v>
+        <v>-56.64</v>
       </c>
       <c r="J8" t="s">
         <v>4</v>
@@ -879,7 +836,7 @@
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -887,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>43732</v>
+        <v>43731</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
       </c>
       <c r="G9">
-        <v>-26.49</v>
+        <v>-8</v>
       </c>
       <c r="J9" t="s">
         <v>4</v>
@@ -908,7 +865,7 @@
         <v>5</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -919,25 +876,25 @@
         <v>43731</v>
       </c>
       <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>-7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" t="s">
         <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>-13.58</v>
-      </c>
-      <c r="J10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -951,22 +908,22 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>-12.64</v>
+      </c>
+      <c r="J11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" t="s">
         <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>-56.64</v>
-      </c>
-      <c r="J11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -974,19 +931,19 @@
         <v>0</v>
       </c>
       <c r="B12" s="1">
-        <v>43731</v>
+        <v>43728</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
       </c>
       <c r="G12">
-        <v>-8</v>
+        <v>-23.84</v>
       </c>
       <c r="J12" t="s">
         <v>4</v>
@@ -995,7 +952,7 @@
         <v>5</v>
       </c>
       <c r="L12" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1003,19 +960,19 @@
         <v>0</v>
       </c>
       <c r="B13" s="1">
-        <v>43731</v>
+        <v>43728</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
         <v>3</v>
       </c>
       <c r="G13">
-        <v>-7</v>
+        <v>-63.59</v>
       </c>
       <c r="J13" t="s">
         <v>4</v>
@@ -1024,7 +981,7 @@
         <v>5</v>
       </c>
       <c r="L13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1032,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="B14" s="1">
-        <v>43731</v>
+        <v>43726</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
         <v>3</v>
       </c>
       <c r="G14">
-        <v>-12.64</v>
+        <v>-9.5299999999999994</v>
       </c>
       <c r="J14" t="s">
         <v>4</v>
@@ -1053,7 +1010,7 @@
         <v>5</v>
       </c>
       <c r="L14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1061,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1">
-        <v>43728</v>
+        <v>43725</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -1090,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="B16" s="1">
-        <v>43728</v>
+        <v>43724</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
         <v>3</v>
       </c>
       <c r="G16">
-        <v>-63.59</v>
+        <v>-8.64</v>
       </c>
       <c r="J16" t="s">
         <v>4</v>
@@ -1111,7 +1068,7 @@
         <v>5</v>
       </c>
       <c r="L16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1119,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="B17" s="1">
-        <v>43727</v>
+        <v>43724</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
         <v>3</v>
       </c>
       <c r="G17">
-        <v>250</v>
+        <v>-2</v>
       </c>
       <c r="J17" t="s">
         <v>4</v>
@@ -1140,7 +1097,7 @@
         <v>5</v>
       </c>
       <c r="L17" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1148,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1">
-        <v>43726</v>
+        <v>43721</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -1160,7 +1117,7 @@
         <v>3</v>
       </c>
       <c r="G18">
-        <v>-9.5299999999999994</v>
+        <v>-23.84</v>
       </c>
       <c r="J18" t="s">
         <v>4</v>
@@ -1169,7 +1126,7 @@
         <v>5</v>
       </c>
       <c r="L18" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1177,19 +1134,19 @@
         <v>0</v>
       </c>
       <c r="B19" s="1">
-        <v>43725</v>
+        <v>43721</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
         <v>3</v>
       </c>
       <c r="G19">
-        <v>-23.84</v>
+        <v>-8.64</v>
       </c>
       <c r="J19" t="s">
         <v>4</v>
@@ -1198,7 +1155,7 @@
         <v>5</v>
       </c>
       <c r="L19" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1206,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="B20" s="1">
-        <v>43724</v>
+        <v>43718</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
         <v>3</v>
       </c>
       <c r="G20">
-        <v>-8.64</v>
+        <v>-24.27</v>
       </c>
       <c r="J20" t="s">
         <v>4</v>
@@ -1227,7 +1184,7 @@
         <v>5</v>
       </c>
       <c r="L20" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1235,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="B21" s="1">
-        <v>43724</v>
+        <v>43717</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>3</v>
       </c>
       <c r="G21">
-        <v>-2</v>
+        <v>-63.59</v>
       </c>
       <c r="J21" t="s">
         <v>4</v>
@@ -1256,7 +1213,7 @@
         <v>5</v>
       </c>
       <c r="L21" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1264,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="B22" s="1">
-        <v>43721</v>
+        <v>43717</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
         <v>3</v>
       </c>
       <c r="G22">
-        <v>-23.84</v>
+        <v>-9.9</v>
       </c>
       <c r="J22" t="s">
         <v>4</v>
@@ -1285,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="L22" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1293,19 +1250,19 @@
         <v>0</v>
       </c>
       <c r="B23" s="1">
-        <v>43721</v>
+        <v>43717</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
         <v>3</v>
       </c>
       <c r="G23">
-        <v>-8.64</v>
+        <v>-42.16</v>
       </c>
       <c r="J23" t="s">
         <v>4</v>
@@ -1314,7 +1271,7 @@
         <v>5</v>
       </c>
       <c r="L23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1322,19 +1279,19 @@
         <v>0</v>
       </c>
       <c r="B24" s="1">
-        <v>43720</v>
+        <v>43717</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
         <v>3</v>
       </c>
       <c r="G24">
-        <v>250</v>
+        <v>-26.99</v>
       </c>
       <c r="J24" t="s">
         <v>4</v>
@@ -1343,7 +1300,7 @@
         <v>5</v>
       </c>
       <c r="L24" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1351,28 +1308,28 @@
         <v>0</v>
       </c>
       <c r="B25" s="1">
-        <v>43718</v>
+        <v>43713</v>
       </c>
       <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>-10</v>
+      </c>
+      <c r="J25" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" t="s">
         <v>48</v>
-      </c>
-      <c r="E25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25">
-        <v>-24.27</v>
-      </c>
-      <c r="J25" t="s">
-        <v>4</v>
-      </c>
-      <c r="K25" t="s">
-        <v>5</v>
-      </c>
-      <c r="L25" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1380,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="1">
-        <v>43717</v>
+        <v>43713</v>
       </c>
       <c r="C26" t="s">
         <v>49</v>
@@ -1392,7 +1349,7 @@
         <v>3</v>
       </c>
       <c r="G26">
-        <v>-63.59</v>
+        <v>-19.850000000000001</v>
       </c>
       <c r="J26" t="s">
         <v>4</v>
@@ -1401,7 +1358,7 @@
         <v>5</v>
       </c>
       <c r="L26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1409,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="1">
-        <v>43717</v>
+        <v>43713</v>
       </c>
       <c r="C27" t="s">
         <v>50</v>
@@ -1421,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="G27">
-        <v>-9.9</v>
+        <v>-45</v>
       </c>
       <c r="J27" t="s">
         <v>4</v>
@@ -1438,19 +1395,19 @@
         <v>0</v>
       </c>
       <c r="B28" s="1">
-        <v>43717</v>
+        <v>43712</v>
       </c>
       <c r="C28" t="s">
         <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
         <v>3</v>
       </c>
       <c r="G28">
-        <v>-42.16</v>
+        <v>-9.89</v>
       </c>
       <c r="J28" t="s">
         <v>4</v>
@@ -1459,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="L28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1467,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="B29" s="1">
-        <v>43717</v>
+        <v>43711</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
         <v>3</v>
       </c>
       <c r="G29">
-        <v>-26.99</v>
+        <v>-28.04</v>
       </c>
       <c r="J29" t="s">
         <v>4</v>
@@ -1488,7 +1445,7 @@
         <v>5</v>
       </c>
       <c r="L29" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1496,28 +1453,28 @@
         <v>0</v>
       </c>
       <c r="B30" s="1">
-        <v>43717</v>
+        <v>43711</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>-41.13</v>
+      </c>
+      <c r="J30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30" t="s">
         <v>56</v>
-      </c>
-      <c r="F30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30">
-        <v>11.02</v>
-      </c>
-      <c r="J30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K30" t="s">
-        <v>5</v>
-      </c>
-      <c r="L30" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1525,28 +1482,28 @@
         <v>0</v>
       </c>
       <c r="B31" s="1">
-        <v>43713</v>
+        <v>43711</v>
       </c>
       <c r="C31" t="s">
         <v>58</v>
       </c>
       <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>-19.07</v>
+      </c>
+      <c r="J31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31">
-        <v>-10</v>
-      </c>
-      <c r="J31" t="s">
-        <v>4</v>
-      </c>
-      <c r="K31" t="s">
-        <v>5</v>
-      </c>
-      <c r="L31" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1554,19 +1511,19 @@
         <v>0</v>
       </c>
       <c r="B32" s="1">
-        <v>43713</v>
+        <v>43711</v>
       </c>
       <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" t="s">
         <v>61</v>
       </c>
-      <c r="E32" t="s">
-        <v>2</v>
-      </c>
       <c r="F32" t="s">
         <v>3</v>
       </c>
       <c r="G32">
-        <v>-19.850000000000001</v>
+        <v>-13.25</v>
       </c>
       <c r="J32" t="s">
         <v>4</v>
@@ -1575,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="L32" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1583,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="B33" s="1">
-        <v>43713</v>
+        <v>43711</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
         <v>3</v>
       </c>
       <c r="G33">
-        <v>-45</v>
+        <v>-50.84</v>
       </c>
       <c r="J33" t="s">
         <v>4</v>
@@ -1604,7 +1561,7 @@
         <v>5</v>
       </c>
       <c r="L33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1612,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="B34" s="1">
-        <v>43713</v>
+        <v>43711</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="F34" t="s">
         <v>3</v>
       </c>
       <c r="G34">
-        <v>250</v>
+        <v>-86.22</v>
       </c>
       <c r="J34" t="s">
         <v>4</v>
@@ -1633,7 +1590,7 @@
         <v>5</v>
       </c>
       <c r="L34" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1641,19 +1598,19 @@
         <v>0</v>
       </c>
       <c r="B35" s="1">
-        <v>43712</v>
+        <v>43711</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F35" t="s">
         <v>3</v>
       </c>
       <c r="G35">
-        <v>-9.89</v>
+        <v>-10.06</v>
       </c>
       <c r="J35" t="s">
         <v>4</v>
@@ -1662,7 +1619,7 @@
         <v>5</v>
       </c>
       <c r="L35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1670,260 +1627,28 @@
         <v>0</v>
       </c>
       <c r="B36" s="1">
-        <v>43712</v>
+        <v>43711</v>
       </c>
       <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>-2.75</v>
+      </c>
+      <c r="J36" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36" t="s">
+        <v>5</v>
+      </c>
+      <c r="L36" t="s">
         <v>68</v>
-      </c>
-      <c r="E36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36">
-        <v>60</v>
-      </c>
-      <c r="J36" t="s">
-        <v>4</v>
-      </c>
-      <c r="K36" t="s">
-        <v>5</v>
-      </c>
-      <c r="L36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="1">
-        <v>43711</v>
-      </c>
-      <c r="C37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" t="s">
-        <v>3</v>
-      </c>
-      <c r="G37">
-        <v>-28.04</v>
-      </c>
-      <c r="J37" t="s">
-        <v>4</v>
-      </c>
-      <c r="K37" t="s">
-        <v>5</v>
-      </c>
-      <c r="L37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="1">
-        <v>43711</v>
-      </c>
-      <c r="C38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38">
-        <v>-41.13</v>
-      </c>
-      <c r="J38" t="s">
-        <v>4</v>
-      </c>
-      <c r="K38" t="s">
-        <v>5</v>
-      </c>
-      <c r="L38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="1">
-        <v>43711</v>
-      </c>
-      <c r="C39" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39">
-        <v>-19.07</v>
-      </c>
-      <c r="J39" t="s">
-        <v>4</v>
-      </c>
-      <c r="K39" t="s">
-        <v>5</v>
-      </c>
-      <c r="L39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="1">
-        <v>43711</v>
-      </c>
-      <c r="C40" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" t="s">
-        <v>3</v>
-      </c>
-      <c r="G40">
-        <v>-13.25</v>
-      </c>
-      <c r="J40" t="s">
-        <v>4</v>
-      </c>
-      <c r="K40" t="s">
-        <v>5</v>
-      </c>
-      <c r="L40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="1">
-        <v>43711</v>
-      </c>
-      <c r="C41" t="s">
-        <v>78</v>
-      </c>
-      <c r="E41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41">
-        <v>-50.84</v>
-      </c>
-      <c r="J41" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="1">
-        <v>43711</v>
-      </c>
-      <c r="C42" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" t="s">
-        <v>76</v>
-      </c>
-      <c r="F42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42">
-        <v>-86.22</v>
-      </c>
-      <c r="J42" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="1">
-        <v>43711</v>
-      </c>
-      <c r="C43" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43">
-        <v>-10.06</v>
-      </c>
-      <c r="J43" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="1">
-        <v>43711</v>
-      </c>
-      <c r="C44" t="s">
-        <v>82</v>
-      </c>
-      <c r="E44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44">
-        <v>-2.75</v>
-      </c>
-      <c r="J44" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
